--- a/Книга1.xlsx
+++ b/Книга1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Spectra\AndroidStudioProjects\Healt_App\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{543FFC2E-5306-4268-89C9-C8AE479C71AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0B6BA6B-E1FA-4C12-A862-4C9F4E82C347}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FCFD0E75-D1DD-4297-92AB-8587A5C05B41}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="2" xr2:uid="{FCFD0E75-D1DD-4297-92AB-8587A5C05B41}"/>
   </bookViews>
   <sheets>
     <sheet name="ПОЛЬЗОВАТЕЛЬ" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>id</t>
   </si>
@@ -89,7 +89,10 @@
     <t>ДАТа</t>
   </si>
   <si>
-    <t>Место</t>
+    <t>имя пациента</t>
+  </si>
+  <si>
+    <t>имя врача</t>
   </si>
 </sst>
 </file>
@@ -447,7 +450,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BC02DF5-9F0C-4CF9-B5E0-30D6787FA08F}">
   <dimension ref="A1:F5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
@@ -615,10 +618,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6332044-B245-4F25-A1BD-55A5B5BAE31C}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -627,9 +630,10 @@
     <col min="2" max="2" width="26" customWidth="1"/>
     <col min="3" max="3" width="22" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
+    <col min="6" max="6" width="15.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>14</v>
       </c>
@@ -644,6 +648,9 @@
       </c>
       <c r="E1" t="s">
         <v>18</v>
+      </c>
+      <c r="F1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
